--- a/doc/Digi-e管理中心/Digi-e管理中心.xlsx
+++ b/doc/Digi-e管理中心/Digi-e管理中心.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9980" tabRatio="841" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="26080" windowHeight="11300" tabRatio="841" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="库存模块功能导航" sheetId="1" r:id="rId1"/>
-    <sheet name="管理中心" sheetId="2" r:id="rId2"/>
+    <sheet name="餐厅管理" sheetId="2" r:id="rId2"/>
+    <sheet name="终端管理" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>功能点</t>
   </si>
@@ -143,7 +144,7 @@
     <t>操作</t>
   </si>
   <si>
-    <t>新密码：</t>
+    <t>管理员密码：</t>
   </si>
   <si>
     <t>******</t>
@@ -176,7 +177,7 @@
     <t xml:space="preserve">修改 </t>
   </si>
   <si>
-    <t>确认新密码：</t>
+    <t>确认密码：</t>
   </si>
   <si>
     <t>restaurant_info</t>
@@ -236,7 +237,7 @@
     <t>账单有效期：</t>
   </si>
   <si>
-    <t>180天</t>
+    <t>○90  ●180 ○360</t>
   </si>
   <si>
     <t>activeness</t>
@@ -257,12 +258,14 @@
   <si>
     <t>创建新餐厅时，需同步创建如下信息：
 1、一个默认的活动价格方案
-2、一个匿名的client用户
+2、"无折扣"的折扣方案
 3、"大牌", "中牌", "例牌"3个规格
-4、"无折扣"的折扣方案
-5、50个是厨房 + 1个临时厨房
-6、10个部门 + 1个临时部门
-7、"商品"的物料类型</t>
+4、50个是厨房 
+5、10个部门 
+6、"商品"的物料类型
+7、"管理员"和"老板"两个系统角色
+8、"财务"，"部长"，"服务员"三个普通角色
+9、管理员的信息</t>
   </si>
   <si>
     <t>&lt;活跃度&gt;
@@ -272,6 +275,108 @@
   </si>
   <si>
     <t>确认    取消</t>
+  </si>
+  <si>
+    <t>Digi-e管理中心 - 终端信息</t>
+  </si>
+  <si>
+    <t>添加终端</t>
+  </si>
+  <si>
+    <t>终端信息表(device)</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>PIN：</t>
+  </si>
+  <si>
+    <t>20237AB8</t>
+  </si>
+  <si>
+    <t>设备编号</t>
+  </si>
+  <si>
+    <t>所属餐厅</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>餐厅编号：</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>修改  删除</t>
+  </si>
+  <si>
+    <t>状态：</t>
+  </si>
+  <si>
+    <t>●启用  ○停用</t>
+  </si>
+  <si>
+    <t>餐厅id</t>
+  </si>
+  <si>
+    <t>20237AB9</t>
+  </si>
+  <si>
+    <t>型号：</t>
+  </si>
+  <si>
+    <t>●Android  ○iOS  ○WP</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>20237ABA</t>
+  </si>
+  <si>
+    <t>利雅苑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">确认    取消 </t>
+  </si>
+  <si>
+    <t>device_id_crc</t>
+  </si>
+  <si>
+    <t>设备编号的crc值</t>
+  </si>
+  <si>
+    <t>20237ABB</t>
+  </si>
+  <si>
+    <t>停用</t>
+  </si>
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>模型，1：Android 2：iOS 3：WP</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>类型，1：停用 2：启用</t>
   </si>
 </sst>
 </file>
@@ -284,13 +389,26 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="7"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="7"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -308,16 +426,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="7"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="7"/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="38"/>
       <charset val="134"/>
     </font>
     <font>
@@ -369,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -385,6 +496,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -394,6 +529,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -404,6 +563,244 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -488,7 +885,20 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -503,50 +913,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -564,30 +931,12 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -633,65 +982,12 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -830,8 +1126,113 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -841,205 +1242,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1393,124 +1746,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="9" style="68"/>
-    <col min="3" max="3" width="50.625" style="67" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="67"/>
+    <col min="1" max="1" width="20.6238532110092" style="86" customWidth="1"/>
+    <col min="2" max="2" width="9" style="87"/>
+    <col min="3" max="3" width="50.6238532110092" style="86" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" s="66" customFormat="1" customHeight="1">
-      <c r="A1" s="69" t="s">
+    <row r="1" s="85" customFormat="1" customHeight="1">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68">
+      <c r="B2" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="68">
+      <c r="B4" s="87">
         <v>2</v>
       </c>
     </row>
     <row r="5" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="87">
         <v>2</v>
       </c>
     </row>
     <row r="8" customHeight="1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="9" customHeight="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="13" customHeight="1">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="14" customHeight="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="87">
         <v>1</v>
       </c>
     </row>
@@ -1531,551 +1884,551 @@
   <sheetPr/>
   <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="17.125" customWidth="1"/>
-    <col min="14" max="14" width="21.5" customWidth="1"/>
-    <col min="15" max="15" width="14.75" customWidth="1"/>
-    <col min="16" max="16" width="27.75" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="3.37614678899083" customWidth="1"/>
+    <col min="2" max="2" width="30.6238532110092" style="37" customWidth="1"/>
+    <col min="3" max="3" width="9" style="38"/>
+    <col min="4" max="4" width="30.6238532110092" style="36" customWidth="1"/>
+    <col min="6" max="6" width="7.37614678899083" customWidth="1"/>
+    <col min="7" max="8" width="14.1284403669725" customWidth="1"/>
+    <col min="9" max="10" width="12.1284403669725" customWidth="1"/>
+    <col min="11" max="11" width="13.3761467889908" customWidth="1"/>
+    <col min="12" max="12" width="11.3761467889908" customWidth="1"/>
+    <col min="13" max="13" width="17.1284403669725" customWidth="1"/>
+    <col min="14" max="14" width="21.5045871559633" customWidth="1"/>
+    <col min="15" max="15" width="14.7522935779817" customWidth="1"/>
+    <col min="16" max="16" width="27.7522935779816" customWidth="1"/>
+    <col min="18" max="18" width="14.1284403669725" customWidth="1"/>
+    <col min="19" max="19" width="29.3761467889908" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="40"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42" t="s">
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="R3" s="54" t="s">
+      <c r="P3" s="66"/>
+      <c r="R3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="55"/>
+      <c r="S3" s="74"/>
     </row>
     <row r="4" customHeight="1">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="48"/>
-      <c r="R4" s="56" t="s">
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="68"/>
+      <c r="R4" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="57" t="s">
+      <c r="S4" s="76" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1">
-      <c r="B5" s="12" t="s">
+    <row r="5" s="36" customFormat="1" customHeight="1">
+      <c r="B5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="56" t="s">
+      <c r="R5" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="76" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customHeight="1">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="45">
         <v>1</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="47">
         <v>42078</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="46">
         <v>1</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S6" s="57" t="s">
+      <c r="S6" s="76" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" customHeight="1">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="52"/>
-      <c r="R7" s="56" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="71"/>
+      <c r="R7" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="57" t="s">
+      <c r="S7" s="76" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" customHeight="1">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="52"/>
-      <c r="R8" s="56" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="71"/>
+      <c r="R8" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="57">
+      <c r="S8" s="76">
         <v>2087024004</v>
       </c>
     </row>
     <row r="9" customHeight="1">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="52"/>
-      <c r="R9" s="56" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="71"/>
+      <c r="R9" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="57" t="s">
+      <c r="S9" s="76" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" customHeight="1">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="52"/>
-      <c r="R10" s="56" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="71"/>
+      <c r="R10" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="S10" s="57" t="s">
+      <c r="S10" s="76" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" customHeight="1">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="52"/>
-      <c r="R11" s="56" t="s">
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="71"/>
+      <c r="R11" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="S11" s="58">
+      <c r="S11" s="77">
         <v>42078</v>
       </c>
     </row>
     <row r="12" customHeight="1">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="53"/>
-      <c r="R12" s="56" t="s">
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="72"/>
+      <c r="R12" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="S12" s="57" t="s">
+      <c r="S12" s="76" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" customHeight="1">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="R13" s="59" t="s">
+      <c r="R13" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="S13" s="60"/>
+      <c r="S13" s="79"/>
     </row>
     <row r="14" customHeight="1">
-      <c r="R14" s="61" t="s">
+      <c r="R14" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="S14" s="62"/>
+      <c r="S14" s="81"/>
     </row>
     <row r="15" customHeight="1">
-      <c r="O15" s="54" t="s">
+      <c r="O15" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="55"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="57"/>
+      <c r="P15" s="74"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="76"/>
     </row>
     <row r="16" customHeight="1">
-      <c r="O16" s="56" t="s">
+      <c r="O16" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="57" t="s">
+      <c r="P16" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="R16" s="63"/>
-      <c r="S16" s="57"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="76"/>
     </row>
     <row r="17" customHeight="1">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
       <c r="E17"/>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-      <c r="O17" s="56" t="s">
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="O17" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="57" t="s">
+      <c r="P17" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="64" t="s">
+      <c r="R17" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="S17" s="65"/>
+      <c r="S17" s="84"/>
     </row>
     <row r="18" customHeight="1">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="O18" s="56" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="O18" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="57" t="s">
+      <c r="P18" s="76" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" customHeight="1">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="O19" s="56" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
+      <c r="O19" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="57" t="s">
+      <c r="P19" s="76" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" customHeight="1">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="O20" s="56" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="O20" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="57">
+      <c r="P20" s="76">
         <v>2087024004</v>
       </c>
     </row>
     <row r="21" customHeight="1">
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="O21" s="56" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61"/>
+      <c r="O21" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="57" t="s">
+      <c r="P21" s="76" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" customHeight="1">
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="O22" s="56" t="s">
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
+      <c r="O22" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="57" t="s">
+      <c r="P22" s="76" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" customHeight="1">
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="O23" s="56" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61"/>
+      <c r="O23" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="P23" s="58">
+      <c r="P23" s="77">
         <v>42078</v>
       </c>
     </row>
     <row r="24" customHeight="1">
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39"/>
-      <c r="O24" s="56" t="s">
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="O24" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="57" t="s">
+      <c r="P24" s="76" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" customHeight="1">
-      <c r="O25" s="59" t="s">
+      <c r="O25" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="P25" s="60"/>
+      <c r="P25" s="79"/>
     </row>
     <row r="26" customHeight="1">
-      <c r="O26" s="61" t="s">
+      <c r="O26" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="P26" s="62"/>
+      <c r="P26" s="81"/>
     </row>
     <row r="27" customHeight="1">
-      <c r="O27" s="63"/>
-      <c r="P27" s="57"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="76"/>
     </row>
     <row r="28" customHeight="1">
-      <c r="O28" s="63"/>
-      <c r="P28" s="57"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="76"/>
     </row>
     <row r="29" customHeight="1">
-      <c r="O29" s="64" t="s">
+      <c r="O29" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="P29" s="65"/>
+      <c r="P29" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2093,25 +2446,325 @@
     <mergeCell ref="R14:S16"/>
     <mergeCell ref="F17:H24"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C12 G17:G24">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048533 G17:G24">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C1048533">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G4:H4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G4:J4">
       <formula1>"编号,帐户名,餐厅名"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I4:J4">
-      <formula1>"编号,帐户名,餐厅名"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S12 P24">
-      <formula1>"90天,180天,360天,永久"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P24 S12"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B3:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.9908256880734" defaultRowHeight="12.9"/>
+  <cols>
+    <col min="1" max="1" width="5.73394495412844" customWidth="1"/>
+    <col min="2" max="2" width="18.6880733944954" customWidth="1"/>
+    <col min="3" max="3" width="5.72477064220184" customWidth="1"/>
+    <col min="4" max="4" width="33.5229357798165" customWidth="1"/>
+    <col min="6" max="6" width="14.5871559633028" customWidth="1"/>
+    <col min="7" max="7" width="16.7889908256881" customWidth="1"/>
+    <col min="8" max="8" width="19.2752293577982" customWidth="1"/>
+    <col min="9" max="9" width="12.9357798165138"/>
+    <col min="10" max="10" width="31.4036697247706" customWidth="1"/>
+    <col min="11" max="11" width="11.2110091743119" customWidth="1"/>
+    <col min="12" max="12" width="20.5229357798165" customWidth="1"/>
+    <col min="13" max="16" width="31.4036697247706" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="16.3">
+      <c r="F3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" ht="16.3">
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="23"/>
+      <c r="L4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" ht="16.3">
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="16.3">
+      <c r="B6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" ht="16.3">
+      <c r="B7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" ht="16.3">
+      <c r="B8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" ht="16.3">
+      <c r="B9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" ht="16.3">
+      <c r="B10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" ht="16.3">
+      <c r="B11" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" ht="16.3">
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" ht="16.3">
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" ht="16.3">
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" ht="16.3">
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" ht="16.3">
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" ht="16.3">
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="L8:M8"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C11">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
+      <formula1>"PIN,餐厅名称,型号,有效期,状态"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/doc/Digi-e管理中心/Digi-e管理中心.xlsx
+++ b/doc/Digi-e管理中心/Digi-e管理中心.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26080" windowHeight="11300" tabRatio="841" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="26080" windowHeight="11280" tabRatio="841" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="库存模块功能导航" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>功能点</t>
   </si>
@@ -123,6 +123,9 @@
     <t>餐厅名</t>
   </si>
   <si>
+    <t>创建日期</t>
+  </si>
+  <si>
     <t>活跃度</t>
   </si>
   <si>
@@ -150,40 +153,46 @@
     <t>******</t>
   </si>
   <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>演示餐厅</t>
+  </si>
+  <si>
+    <t>02087024004</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>广州市东圃镇...</t>
+  </si>
+  <si>
+    <t>智易科技，...</t>
+  </si>
+  <si>
+    <t>90天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改 </t>
+  </si>
+  <si>
+    <t>确认密码：</t>
+  </si>
+  <si>
     <t>restaurant_name</t>
   </si>
   <si>
     <t>餐厅名称</t>
   </si>
   <si>
-    <t>演示餐厅</t>
-  </si>
-  <si>
-    <t>02087024004</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>广州市东圃镇...</t>
-  </si>
-  <si>
-    <t>智易科技，...</t>
-  </si>
-  <si>
-    <t>90天</t>
-  </si>
-  <si>
-    <t xml:space="preserve">修改 </t>
-  </si>
-  <si>
-    <t>确认密码：</t>
+    <t>餐厅名：</t>
   </si>
   <si>
     <t>restaurant_info</t>
   </si>
   <si>
-    <t>餐厅名：</t>
+    <t>电话1：</t>
   </si>
   <si>
     <t>tele1</t>
@@ -192,7 +201,7 @@
     <t>餐厅电话1</t>
   </si>
   <si>
-    <t>电话1：</t>
+    <t>电话2：</t>
   </si>
   <si>
     <t>tele2</t>
@@ -201,7 +210,10 @@
     <t>餐厅电话2</t>
   </si>
   <si>
-    <t>电话2：</t>
+    <t>地址：</t>
+  </si>
+  <si>
+    <t>广州市东圃镇名圃新村K3-802</t>
   </si>
   <si>
     <t>address</t>
@@ -213,10 +225,7 @@
     <t>餐厅地址</t>
   </si>
   <si>
-    <t>地址：</t>
-  </si>
-  <si>
-    <t>广州市东圃镇名圃新村K3-802</t>
+    <t>帐号有效期：</t>
   </si>
   <si>
     <t>record_alive</t>
@@ -225,7 +234,10 @@
     <t>餐厅记录的有效时间</t>
   </si>
   <si>
-    <t>帐号有效期：</t>
+    <t>账单有效期：</t>
+  </si>
+  <si>
+    <t>○90  ●180 ○360</t>
   </si>
   <si>
     <t>expire_date</t>
@@ -234,19 +246,13 @@
     <t>餐厅的过期时间</t>
   </si>
   <si>
-    <t>账单有效期：</t>
-  </si>
-  <si>
-    <t>○90  ●180 ○360</t>
+    <t>餐厅信息：</t>
   </si>
   <si>
     <t>activeness</t>
   </si>
   <si>
     <t>餐厅活跃度</t>
-  </si>
-  <si>
-    <t>餐厅信息：</t>
   </si>
   <si>
     <t>欢迎使用e点通手持终端。
@@ -254,6 +260,15 @@
   </si>
   <si>
     <t>修改（原餐厅名）</t>
+  </si>
+  <si>
+    <t>&lt;活跃度&gt;
+活跃度的范围是[0,1]，计算的方式如下：
+liveness = m / n，其中n是从当前日期起参照的天数，m是在n天内账单数不为0的天数。
+活跃度在日结时自动计算。</t>
+  </si>
+  <si>
+    <t>确认    取消</t>
   </si>
   <si>
     <t>创建新餐厅时，需同步创建如下信息：
@@ -265,16 +280,8 @@
 6、"商品"的物料类型
 7、"管理员"和"老板"两个系统角色
 8、"财务"，"部长"，"服务员"三个普通角色
-9、管理员的信息</t>
-  </si>
-  <si>
-    <t>&lt;活跃度&gt;
-活跃度的范围是[0,1]，计算的方式如下：
-act = m / n，其中n是从当前日期起参照的天数，m是在n天内账单数不为0的天数。
-活跃度在日结时自动计算。</t>
-  </si>
-  <si>
-    <t>确认    取消</t>
+9、管理员的员工信息
+10、创建常用的退菜原因</t>
   </si>
   <si>
     <t>Digi-e管理中心 - 终端信息</t>
@@ -480,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -489,13 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -583,7 +583,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -592,13 +592,13 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -613,78 +613,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -747,8 +680,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -758,17 +693,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -778,7 +702,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -786,34 +712,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -837,32 +735,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -886,36 +758,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -981,8 +823,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -994,83 +838,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1099,6 +870,34 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1107,292 +906,256 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1"/>
+  <cellXfs count="78">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1453,71 +1216,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1746,124 +1509,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.6238532110092" style="86" customWidth="1"/>
-    <col min="2" max="2" width="9" style="87"/>
-    <col min="3" max="3" width="50.6238532110092" style="86" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="86"/>
+    <col min="1" max="1" width="20.6238532110092" style="74" customWidth="1"/>
+    <col min="2" max="2" width="9" style="75"/>
+    <col min="3" max="3" width="50.6238532110092" style="74" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" s="85" customFormat="1" customHeight="1">
-      <c r="A1" s="88" t="s">
+    <row r="1" s="73" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1">
-      <c r="A2" s="36" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customHeight="1">
-      <c r="A3" s="86" t="s">
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="87">
+      <c r="B3" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customHeight="1">
-      <c r="A4" s="86" t="s">
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="75">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customHeight="1">
-      <c r="A5" s="86" t="s">
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customHeight="1">
-      <c r="A6" s="86" t="s">
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1">
-      <c r="A7" s="86" t="s">
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="87">
+      <c r="B7" s="75">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customHeight="1">
-      <c r="A8" s="86" t="s">
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="87">
+      <c r="B8" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customHeight="1">
-      <c r="A9" s="86" t="s">
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="87">
+      <c r="B9" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customHeight="1">
-      <c r="A10" s="86" t="s">
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customHeight="1">
-      <c r="A11" s="86" t="s">
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="87">
+      <c r="B11" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customHeight="1">
-      <c r="A12" s="86" t="s">
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customHeight="1">
-      <c r="A13" s="86" t="s">
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="87">
+      <c r="B13" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customHeight="1">
-      <c r="A14" s="86" t="s">
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="87">
+      <c r="B14" s="75">
         <v>1</v>
       </c>
     </row>
@@ -1882,39 +1645,39 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:S29"/>
+  <dimension ref="B2:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.37614678899083" customWidth="1"/>
-    <col min="2" max="2" width="30.6238532110092" style="37" customWidth="1"/>
-    <col min="3" max="3" width="9" style="38"/>
-    <col min="4" max="4" width="30.6238532110092" style="36" customWidth="1"/>
+    <col min="2" max="2" width="30.6238532110092" style="36" customWidth="1"/>
+    <col min="3" max="3" width="9" style="37"/>
+    <col min="4" max="4" width="30.6238532110092" style="35" customWidth="1"/>
     <col min="6" max="6" width="7.37614678899083" customWidth="1"/>
     <col min="7" max="8" width="14.1284403669725" customWidth="1"/>
-    <col min="9" max="10" width="12.1284403669725" customWidth="1"/>
-    <col min="11" max="11" width="13.3761467889908" customWidth="1"/>
-    <col min="12" max="12" width="11.3761467889908" customWidth="1"/>
-    <col min="13" max="13" width="17.1284403669725" customWidth="1"/>
-    <col min="14" max="14" width="21.5045871559633" customWidth="1"/>
-    <col min="15" max="15" width="14.7522935779817" customWidth="1"/>
-    <col min="16" max="16" width="27.7522935779816" customWidth="1"/>
-    <col min="18" max="18" width="14.1284403669725" customWidth="1"/>
-    <col min="19" max="19" width="29.3761467889908" customWidth="1"/>
+    <col min="9" max="11" width="12.1284403669725" customWidth="1"/>
+    <col min="12" max="12" width="13.3761467889908" customWidth="1"/>
+    <col min="13" max="13" width="11.3761467889908" customWidth="1"/>
+    <col min="14" max="14" width="17.1284403669725" customWidth="1"/>
+    <col min="15" max="15" width="21.5045871559633" customWidth="1"/>
+    <col min="16" max="16" width="14.7522935779817" customWidth="1"/>
+    <col min="17" max="17" width="27.7522935779816" customWidth="1"/>
+    <col min="19" max="19" width="14.1284403669725" customWidth="1"/>
+    <col min="20" max="20" width="29.3761467889908" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1">
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" customHeight="1">
+    <row r="3" customHeight="1" spans="2:20">
       <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1924,27 +1687,28 @@
       <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="65" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="66"/>
-      <c r="R3" s="73" t="s">
+      <c r="Q3" s="20"/>
+      <c r="S3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="74"/>
-    </row>
-    <row r="4" customHeight="1">
+      <c r="T3" s="65"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:20">
       <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
@@ -1954,29 +1718,30 @@
       <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="68"/>
-      <c r="R4" s="75" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="66"/>
+      <c r="S4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="T4" s="67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" s="36" customFormat="1" customHeight="1">
+    <row r="5" s="35" customFormat="1" customHeight="1" spans="2:20">
       <c r="B5" s="13" t="s">
         <v>30</v>
       </c>
@@ -1986,97 +1751,103 @@
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="44" t="s">
+      <c r="N5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="O5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="75" t="s">
+      <c r="Q5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="76" t="s">
+      <c r="S5" s="60" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" customHeight="1">
-      <c r="B6" s="11" t="s">
+      <c r="T5" s="67" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:20">
+      <c r="B6" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="45">
+      <c r="D6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="14">
         <v>1</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="26">
         <v>42078</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="26">
+        <v>41275</v>
+      </c>
+      <c r="K6" s="15">
         <v>1</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="L6" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="M6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="N6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="46" t="s">
+      <c r="O6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="P6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="71" t="s">
+      <c r="Q6" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="75" t="s">
+      <c r="S6" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S6" s="76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1">
+      <c r="T6" s="67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:20">
       <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
@@ -2084,376 +1855,396 @@
         <v>24</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="71"/>
-      <c r="R7" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="76" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="27"/>
+      <c r="S7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="67" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" customHeight="1">
+    <row r="8" customHeight="1" spans="2:20">
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="71"/>
-      <c r="R8" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="27"/>
+      <c r="S8" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="76">
+      <c r="T8" s="67">
         <v>2087024004</v>
       </c>
     </row>
-    <row r="9" customHeight="1">
+    <row r="9" customHeight="1" spans="2:20">
       <c r="B9" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="71"/>
-      <c r="R9" s="75" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="27"/>
+      <c r="S9" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="76" t="s">
+      <c r="T9" s="67" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" customHeight="1">
+    <row r="10" customHeight="1" spans="2:20">
       <c r="B10" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="27"/>
+      <c r="S10" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="71"/>
-      <c r="R10" s="75" t="s">
+      <c r="T10" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="S10" s="76" t="s">
+    </row>
+    <row r="11" customHeight="1" spans="2:20">
+      <c r="B11" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" customHeight="1">
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="71"/>
-      <c r="R11" s="75" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="27"/>
+      <c r="S11" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="S11" s="77">
+      <c r="T11" s="69">
         <v>42078</v>
       </c>
     </row>
-    <row r="12" customHeight="1">
-      <c r="B12" s="48" t="s">
+    <row r="12" customHeight="1" spans="2:20">
+      <c r="B12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="72"/>
-      <c r="R12" s="75" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="34"/>
+      <c r="S12" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="S12" s="76" t="s">
+      <c r="T12" s="67" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" customHeight="1">
-      <c r="B13" s="53" t="s">
+    <row r="13" customHeight="1" spans="2:20">
+      <c r="B13" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="55" t="s">
+      <c r="C13" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="R13" s="78" t="s">
+      <c r="S13" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="S13" s="79"/>
-    </row>
-    <row r="14" customHeight="1">
-      <c r="R14" s="80" t="s">
+      <c r="T13" s="70"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:20">
+      <c r="B14" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="S14" s="81"/>
-    </row>
-    <row r="15" customHeight="1">
-      <c r="O15" s="73" t="s">
+      <c r="C14" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="74"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="76"/>
-    </row>
-    <row r="16" customHeight="1">
-      <c r="O16" s="75" t="s">
+      <c r="S14" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" s="71"/>
+    </row>
+    <row r="15" customHeight="1" spans="16:20">
+      <c r="P15" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="65"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="67"/>
+    </row>
+    <row r="16" customHeight="1" spans="16:20">
+      <c r="P16" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="76" t="s">
+      <c r="Q16" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="R16" s="82"/>
-      <c r="S16" s="76"/>
-    </row>
-    <row r="17" customHeight="1">
-      <c r="B17" s="56" t="s">
+      <c r="S16" s="63"/>
+      <c r="T16" s="67"/>
+    </row>
+    <row r="17" customHeight="1" spans="6:20">
+      <c r="F17" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="P17" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" s="72"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:17">
+      <c r="B18" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="P18" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:17">
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="P19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" s="67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:17">
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="P20" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="67">
+        <v>2087024004</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:17">
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="P21" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:17">
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="P22" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22" s="67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:17">
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="P23" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="69">
+        <v>42078</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:17">
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="P24" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:17">
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="P25" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="70"/>
+    </row>
+    <row r="26" customHeight="1" spans="16:17">
+      <c r="P26" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17"/>
-      <c r="F17" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-      <c r="O17" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="R17" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="S17" s="84"/>
-    </row>
-    <row r="18" customHeight="1">
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="O18" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1">
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
-      <c r="O19" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="O20" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="P20" s="76">
-        <v>2087024004</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1">
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="61"/>
-      <c r="O21" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" s="76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61"/>
-      <c r="O22" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" s="76" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1">
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="O23" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" s="77">
-        <v>42078</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1">
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="O24" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="P24" s="76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1">
-      <c r="O25" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25" s="79"/>
-    </row>
-    <row r="26" customHeight="1">
-      <c r="O26" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="P26" s="81"/>
-    </row>
-    <row r="27" customHeight="1">
-      <c r="O27" s="82"/>
-      <c r="P27" s="76"/>
-    </row>
-    <row r="28" customHeight="1">
-      <c r="O28" s="82"/>
-      <c r="P28" s="76"/>
-    </row>
-    <row r="29" customHeight="1">
-      <c r="O29" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="P29" s="84"/>
+      <c r="Q26" s="71"/>
+    </row>
+    <row r="27" customHeight="1" spans="16:17">
+      <c r="P27" s="63"/>
+      <c r="Q27" s="67"/>
+    </row>
+    <row r="28" customHeight="1" spans="16:17">
+      <c r="P28" s="63"/>
+      <c r="Q28" s="67"/>
+    </row>
+    <row r="29" customHeight="1" spans="16:17">
+      <c r="P29" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B17:D24"/>
-    <mergeCell ref="O26:P28"/>
-    <mergeCell ref="R14:S16"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P29:Q29"/>
     <mergeCell ref="F17:H24"/>
+    <mergeCell ref="P26:Q28"/>
+    <mergeCell ref="S14:T16"/>
+    <mergeCell ref="B18:D25"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048533 G17:G24">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6 G17:G24">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G4:J4">
       <formula1>"编号,帐户名,餐厅名"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P24 S12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q24 T12"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K4">
+      <formula1>"编号,帐户名,餐厅名"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1048534">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2466,7 +2257,7 @@
   <sheetPr/>
   <dimension ref="B3:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -2486,24 +2277,24 @@
     <col min="13" max="16" width="31.4036697247706" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.3">
+    <row r="3" ht="16.3" spans="6:13">
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" ht="16.3">
+    <row r="4" ht="16.3" spans="2:13">
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2511,19 +2302,19 @@
         <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="5"/>
       <c r="J4" s="23"/>
-      <c r="L4" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" ht="16.3">
+      <c r="L4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" ht="16.3" spans="2:13">
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
@@ -2534,60 +2325,60 @@
         <v>19</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="25">
+        <v>93</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="16.3">
+    <row r="6" ht="16.3" spans="2:13">
       <c r="B6" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="I6" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="J6" s="27" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" ht="16.3">
+      <c r="L6" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" ht="16.3" spans="2:13">
       <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
@@ -2595,159 +2386,159 @@
         <v>24</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" ht="16.3">
+      <c r="I7" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" ht="16.3" spans="2:13">
       <c r="B8" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="34"/>
-    </row>
-    <row r="9" ht="16.3">
+      <c r="I8" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" ht="16.3" spans="2:10">
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" ht="16.3">
+      <c r="I9" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" ht="16.3" spans="2:10">
       <c r="B10" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" ht="16.3">
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" ht="16.3" spans="2:10">
       <c r="B11" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" ht="16.3">
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" ht="16.3" spans="6:10">
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" ht="16.3">
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" ht="16.3" spans="6:10">
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" ht="16.3">
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" ht="16.3" spans="6:10">
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" ht="16.3">
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" ht="16.3" spans="6:10">
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" ht="16.3">
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" ht="16.3" spans="6:10">
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" ht="16.3">
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" ht="16.3" spans="6:10">
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="35"/>
+      <c r="J17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
